--- a/planeacion/Registro_Actividades_Sistema.xlsx
+++ b/planeacion/Registro_Actividades_Sistema.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Actividad</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Tarea completada</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Lista de actividades para el sistema_1.1</t>
@@ -464,7 +461,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -480,6 +477,9 @@
       </c>
       <c r="F2" s="2">
         <v>0.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,6 +501,9 @@
       <c r="F3" s="2">
         <v>0.6</v>
       </c>
+      <c r="G3" s="2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -521,13 +524,13 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="G4" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -536,7 +539,7 @@
         <v>42118</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +547,13 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="G5" s="2">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -559,13 +562,16 @@
         <v>42119</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/planeacion/Registro_Actividades_Sistema.xlsx
+++ b/planeacion/Registro_Actividades_Sistema.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Actividad</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>2:00pm</t>
+  </si>
+  <si>
+    <t>Repositorio listo</t>
+  </si>
+  <si>
+    <t>Configuración de NetBeans para trabajar en el proyecto_1</t>
+  </si>
+  <si>
+    <t>6:30pm</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>Configuración de NetBeans para trabajar en el proyecto_1.1</t>
+  </si>
+  <si>
+    <t>Revisión_1</t>
+  </si>
+  <si>
+    <t>Sirio</t>
+  </si>
+  <si>
+    <t>6:00am</t>
+  </si>
+  <si>
+    <t>6:30am</t>
   </si>
 </sst>
 </file>
@@ -423,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
@@ -572,6 +599,80 @@
       </c>
       <c r="G6" s="2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/planeacion/Registro_Actividades_Sistema.xlsx
+++ b/planeacion/Registro_Actividades_Sistema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Actividad</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>6:30am</t>
+  </si>
+  <si>
+    <t>Creación de la base de datos</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>10:45pm</t>
+  </si>
+  <si>
+    <t>11:32pm</t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,52 +638,75 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
-        <v>42121</v>
+        <v>42119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>42121</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.9</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
+        <v>42121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
         <v>42122</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>

--- a/planeacion/Registro_Actividades_Sistema.xlsx
+++ b/planeacion/Registro_Actividades_Sistema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>Actividad</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Configuración de NetBeans para trabajar en el proyecto_1.1</t>
   </si>
   <si>
-    <t>Revisión_1</t>
-  </si>
-  <si>
     <t>Sirio</t>
   </si>
   <si>
@@ -121,6 +118,171 @@
   </si>
   <si>
     <t>11:32pm</t>
+  </si>
+  <si>
+    <t>Llenado de la base de datos</t>
+  </si>
+  <si>
+    <t>Reestructuración de la base de datos</t>
+  </si>
+  <si>
+    <t>Revisión de la base de datos_1</t>
+  </si>
+  <si>
+    <t>Revisión de la base de datos_1.1</t>
+  </si>
+  <si>
+    <t>Programación del modelo del sistema_1</t>
+  </si>
+  <si>
+    <t>Programación del modelo del sistema_1.1</t>
+  </si>
+  <si>
+    <t>Programación del modelo del sistema_1.2</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1.1</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1.2</t>
+  </si>
+  <si>
+    <t>Programación de las vistas_1</t>
+  </si>
+  <si>
+    <t>Programación de las vistas_1.1</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1.3</t>
+  </si>
+  <si>
+    <t>Programación de las vistas_1.2</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1.4</t>
+  </si>
+  <si>
+    <t>Programación de las vistas_1.3</t>
+  </si>
+  <si>
+    <t>Programación del modelo del sistema_1.3</t>
+  </si>
+  <si>
+    <t>Programación de los controladores del sistema_1.5</t>
+  </si>
+  <si>
+    <t>Programación de las vistas_1.4</t>
+  </si>
+  <si>
+    <t>Revisión_2</t>
+  </si>
+  <si>
+    <t>Revisión_3</t>
+  </si>
+  <si>
+    <t>Revisión_4</t>
+  </si>
+  <si>
+    <t>Entrega final</t>
+  </si>
+  <si>
+    <t>10:00am</t>
+  </si>
+  <si>
+    <t>Revisión_1 inicio del sistema</t>
+  </si>
+  <si>
+    <t>Programación del modelo del sistema_1.4</t>
+  </si>
+  <si>
+    <t>Elaboración de la documentación del sistema_1</t>
+  </si>
+  <si>
+    <t>Elaboración de la documentación del sistema_1.2</t>
+  </si>
+  <si>
+    <t>Elaboración de la documentación del sistema_1.3</t>
+  </si>
+  <si>
+    <t>11:00pm</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
+  </si>
+  <si>
+    <t>4:35pm</t>
+  </si>
+  <si>
+    <t>9:25pm</t>
+  </si>
+  <si>
+    <t>11:15pm</t>
+  </si>
+  <si>
+    <t>1:05pm</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>11:35am</t>
+  </si>
+  <si>
+    <t>5:05pm</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>4:55pm</t>
+  </si>
+  <si>
+    <t>11:05pm</t>
+  </si>
+  <si>
+    <t>11:55pm</t>
+  </si>
+  <si>
+    <t>1:15pm</t>
+  </si>
+  <si>
+    <t>4:45pm</t>
+  </si>
+  <si>
+    <t>10:00pm</t>
+  </si>
+  <si>
+    <t>12:05pm</t>
+  </si>
+  <si>
+    <t>12:25pm</t>
+  </si>
+  <si>
+    <t>2:35pm</t>
+  </si>
+  <si>
+    <t>3:05pm</t>
+  </si>
+  <si>
+    <t>5:55pm</t>
+  </si>
+  <si>
+    <t>2:15pm</t>
+  </si>
+  <si>
+    <t>6:55pm</t>
+  </si>
+  <si>
+    <t>2:25pm</t>
+  </si>
+  <si>
+    <t>3:55pm</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
   </si>
 </sst>
 </file>
@@ -462,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,157 +662,147 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
-        <v>42116</v>
+        <v>42115</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>42116</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.7</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>42118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+        <v>42116</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>42118</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.7</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>42119</v>
+        <v>42118</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>42120</v>
+        <v>42119</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>42119</v>
+        <v>42120</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -661,13 +813,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>42121</v>
+        <v>42119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,22 +856,513 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>42122</v>
       </c>
       <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42140</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42143</v>
       </c>
     </row>
   </sheetData>
